--- a/docs/dataset_scrapper.xlsx
+++ b/docs/dataset_scrapper.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>author</t>
   </si>
@@ -28,49 +28,142 @@
     <t>year</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ervita Kusuma Putri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nila Hutami Putri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ika Kurnia Saputri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rika Nursita</t>
-  </si>
-  <si>
-    <t>Penerapan Text Mining Pada Sistem Klasifikasi Email Spam Menggunakan Metode Naive Bayes</t>
-  </si>
-  <si>
-    <t>Penerapan Text Mining Untuk Pengelompokan Trend Judul Skripsi Pada Program Studi Teknik Industri Universitas Ahmad Dahlan Menggunakan Metode K-Means Dengan Cosine Similarity</t>
-  </si>
-  <si>
-    <t>Penerapan Text Mining Pengelompokkan Judul Kerja Praktek Menggunakan Metode K-Means Clustering Dengan Cosineâ  Similarity</t>
-  </si>
-  <si>
-    <t>Penerapan Text Mining Pengelompokan Judul Manajemen Tugas Proyek Menggunakan Metode K-Means Dengan Cosine Similarity</t>
-  </si>
-  <si>
-    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/69911/penerapan-text-mining-pada-sistem-klasifikasi-email-spam-menggunakan-metode-naive-bayes</t>
-  </si>
-  <si>
-    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/99789/penerapan-text-mining-untuk-pengelompokan-trend-judul-skripsi-pada-program-studi-teknik-industri-universitas-ahmad-dahlan-menggunakan-metode-kmeans-dengan-cosine-similarity</t>
-  </si>
-  <si>
-    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/88427/penerapan-text-mining-pengelompokkan-judul-kerja-praktek-menggunakan-metode-kmeans-clustering-dengan-cosine-similarity</t>
-  </si>
-  <si>
-    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/109748/penerapan-text-mining-pengelompokan-judul-manajemen-tugas-proyek-menggunakan-metode-kmeans-dengan-cosine-similarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2014</t>
+    <t xml:space="preserve"> Muhammad Nur Faiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diah Ayu Septiani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mada Satya Bayu Ambika</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mu Minin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rizky Yogatama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arif Roid Caesarano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imam Suryanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ahmad Muhammad Ridho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bashor Fauzan Muthohirin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faizin Ridho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nita Hildayanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agus Dwi Putra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dedy Saputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dewi Estri Jayanti Harahap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sahiruddin</t>
+  </si>
+  <si>
+    <t>Pengembangan Proses Investigasi Untuk Analisis Live Forensic Pada Web Browser</t>
+  </si>
+  <si>
+    <t>Police Investigation Interview Strategy To Victim Process At Ngampilan Yogyakarta'S Police Sector 2017 : A Pragmatic Approach</t>
+  </si>
+  <si>
+    <t>Mobile Forensic Instant Messenger Berbasis Android Menggunakan Metode Live Forensics</t>
+  </si>
+  <si>
+    <t>Live Data Forensic Artefak Internet Browser Google Chrome, Mozilla Firefox, Opera Mode Incognito</t>
+  </si>
+  <si>
+    <t>Investigasi Artifact Internet Browser Forensic Pada Mobile Menggunakan Metode V2 (Idfif V2)</t>
+  </si>
+  <si>
+    <t>Forensik Jaringan Untuk Mendeteksi Serangan Sql Injection Menggunakan Metode Nist</t>
+  </si>
+  <si>
+    <t>Forensic Mobile Pada Aplikasi Android E-Commerce Menggunakan Logical Extraction Method</t>
+  </si>
+  <si>
+    <t>Cloud Forensics Investigation Pada Cloud Storage Dengan Metode Idfif V2</t>
+  </si>
+  <si>
+    <t>Analisis Live Forensics Pada E-Mail Sebagai Barang Bukti Digital Berbasis Android</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Router Terhadap Serangan Distributed Denial Of Service (Ddos)</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Router Pada Jaringan Komputer Menggunakan Metode Live Forensik</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Pada Serangan Spamming Email Menggunakan Metode Live Forensics</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Jaringan Terhadap Serangan Man In The Middle Attack Menggunakan Metode Live Forensik</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Digital Storage Pada Owncloud Drive</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Data Recovery Pada Smartphone Android</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/100252/pengembangan-proses-investigasi-untuk-analisis-live-forensic-pada-web-browser</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/99997/police-investigation-interview-strategy-to-victim-process-at-ngampilan-yogyakartas-police-sector-2017-a-pragmatic-approach</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/111931/mobile-forensic-instant-messenger-berbasis-android-menggunakan-metode-live-forensics</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/109866/live-data-forensic-artefak-internet-browser-google-chrome-mozilla-firefox-opera-mode-incognito</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/106053/investigasi-artifact-internet-browser-forensic-pada-mobile-menggunakan-metode-v2-idfif-v2</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/99792/forensik-jaringan-untuk-mendeteksi-serangan-sql-injection-menggunakan-metode-nist</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/110539/forensic-mobile-pada-aplikasi-android-ecommerce-menggunakan-logical-extraction-method</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/106052/cloud-forensics-investigation-pada-cloud-storage-dengan-metode-idfif-v2</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/105455/analisis-live-forensics-pada-email-sebagai-barang-bukti-digital-berbasis-android</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/104743/analisis-forensik-router-terhadap-serangan-distributed-denial-of-service-ddos</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/103712/analisis-forensik-router-pada-jaringan-komputer-menggunakan-metode-live-forensik</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/110472/analisis-forensik-pada-serangan-spamming-email-menggunakan-metode-live-forensics</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/103719/analisis-forensik-jaringan-terhadap-serangan-man-in-the-middle-attack-menggunakan-metode-live-forensik</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/111688/analisis-forensik-digital-storage-pada-owncloud-drive</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/107698/analisis-forensik-data-recovery-pada-smartphone-android</t>
   </si>
   <si>
     <t xml:space="preserve"> 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> 2019</t>
@@ -444,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -483,13 +576,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -511,13 +604,167 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -526,6 +773,17 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
